--- a/biology/Botanique/Helichrysum_arenarium/Helichrysum_arenarium.xlsx
+++ b/biology/Botanique/Helichrysum_arenarium/Helichrysum_arenarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helichrysum arenarium, l'Immortelle des sables est une espèce de plantes à fleurs de la famille des Asteraceae. Elle pousse en Europe et en Russie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 15 à 40 cm à odeur marquée.
 Tige dressée, ramifiée, blanche laineuse. Les feuilles sont blanches et tomenteuses sur les deux faces. Les fleurs sont tubulées, jaunes en capitules groupées en corymbe compact.
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de juillet à octobre.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches sur sable calcaire. cultivée, parfois adventice.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Européen oriental.
 </t>
@@ -636,7 +656,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gnaphalium arenarium L.</t>
         </is>
@@ -666,9 +688,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 juil. 2011)[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 juil. 2011) :
 Helichrysum arenarium subsp. arenarium
 Helichrysum arenarium subsp. aucheri</t>
         </is>
